--- a/B1-Oriol-Tecnologia de la fabricacio de paper/practicas_laboratorio/practica_1_oriol.xlsx
+++ b/B1-Oriol-Tecnologia de la fabricacio de paper/practicas_laboratorio/practica_1_oriol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Muestra</t>
   </si>
@@ -24,7 +24,13 @@
     <t>°SR medido (no-corregido)</t>
   </si>
   <si>
+    <t>°SR medido (corregido)</t>
+  </si>
+  <si>
     <t>Peso de la torta [g]</t>
+  </si>
+  <si>
+    <t>Potencia [$W\cdot h$</t>
   </si>
   <si>
     <t>Pasta inicial - 1</t>
@@ -55,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -69,17 +75,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,14 +119,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -327,7 +350,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="25" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="4" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -337,96 +361,150 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
         <v>16.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
+        <v>15.0280373806294</v>
+      </c>
+      <c r="D2" s="4">
         <v>2.214</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
         <v>15.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <v>14.635575785798</v>
+      </c>
+      <c r="D3" s="4">
         <v>2.082</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>29.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
+        <v>25.6532436550296</v>
+      </c>
+      <c r="D4" s="4">
         <v>2.401</v>
+      </c>
+      <c r="E4" s="3">
+        <v>111.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
         <v>30.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
+        <v>26.4640785355425</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.408</v>
+      </c>
+      <c r="E5" s="3">
+        <v>111.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
         <v>48.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
+        <v>47.0743152442503</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.066</v>
+      </c>
+      <c r="E6" s="3">
+        <v>78.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
         <v>48.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
+        <v>46.8312803651051</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.084</v>
+      </c>
+      <c r="E7" s="3">
+        <v>78.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
         <v>67.0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
+        <v>67.8018678841434</v>
+      </c>
+      <c r="D8" s="4">
         <v>1.935</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>65.0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
+        <v>66.1707114166315</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.909</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/B1-Oriol-Tecnologia de la fabricacio de paper/practicas_laboratorio/practica_1_oriol.xlsx
+++ b/B1-Oriol-Tecnologia de la fabricacio de paper/practicas_laboratorio/practica_1_oriol.xlsx
@@ -9,22 +9,25 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RStZ9zodtpzf0bYktojwk0uaZiC+fllPqiYTqMAKAPY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Jj7yDSekZ9uwHqcd4jalrbkkMeT6iicn2cv5IC07Vxc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Muestra</t>
   </si>
   <si>
-    <t>°SR medido (no-corregido)</t>
+    <t>Refino [rev]</t>
   </si>
   <si>
-    <t>°SR medido (corregido)</t>
+    <t>no-corregido [°SR]</t>
+  </si>
+  <si>
+    <t>corregido [°SR]</t>
   </si>
   <si>
     <t>Peso de la torta [g]</t>
@@ -33,35 +36,35 @@
     <t>Potencia [$W\cdot h$</t>
   </si>
   <si>
-    <t>Pasta inicial - 1</t>
+    <t>Pasta 0 - 1</t>
   </si>
   <si>
-    <t>Pasta inicial - 2</t>
+    <t>Pasta 0 - 2</t>
   </si>
   <si>
-    <t>Refinada 3000 rev. - 1</t>
+    <t>Pasta 1 - 1</t>
   </si>
   <si>
-    <t>Refinada 3000 rev. - 2</t>
+    <t>Pasta 1 - 2</t>
   </si>
   <si>
-    <t>Refinada 6000 rev. - 1</t>
+    <t>Pasta 2 - 1</t>
   </si>
   <si>
-    <t>Refinada 6000 rev. - 2</t>
+    <t>Pasta 2 - 2</t>
   </si>
   <si>
-    <t>Refinada 9000 rev. - 1</t>
+    <t>Pasta 3 - 1</t>
   </si>
   <si>
-    <t>Refinada 9000 rev. - 2</t>
+    <t>Pasta 3 - 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -75,28 +78,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,13 +118,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -350,160 +342,187 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="4" max="25" width="8.71"/>
+    <col customWidth="1" min="2" max="3" width="8.71"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="4">
         <v>16.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>15.0280373806294</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>2.214</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="4">
         <v>15.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>14.635575785798</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>2.082</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3000.0</v>
+      </c>
+      <c r="C4" s="4">
         <v>29.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>25.6532436550296</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>2.401</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>111.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3000.0</v>
+      </c>
+      <c r="C5" s="4">
         <v>30.0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>26.4640785355425</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2.408</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>111.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6000.0</v>
+      </c>
+      <c r="C6" s="4">
         <v>48.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>47.0743152442503</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>2.066</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>78.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6000.0</v>
+      </c>
+      <c r="C7" s="4">
         <v>48.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>46.8312803651051</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>2.084</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>78.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9000.0</v>
+      </c>
+      <c r="C8" s="4">
         <v>67.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>67.8018678841434</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>1.935</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9000.0</v>
+      </c>
+      <c r="C9" s="4">
         <v>65.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>66.1707114166315</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>1.909</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42.0</v>
       </c>
     </row>
